--- a/data/dice_export_global_cybersecurity_index.xlsx
+++ b/data/dice_export_global_cybersecurity_index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stan Smith\Documents\GIT\public_development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DDE444-95D0-4B58-9529-727DBA3369F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB66FAB6-3510-40AB-A6F2-9F3C2C50B61F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,18 @@
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Sources" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1047,7 +1058,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A196" sqref="A196"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
